--- a/classfiers/bloated/decisionTree/smote/bloated-decisionTree-smote-results.xlsx
+++ b/classfiers/bloated/decisionTree/smote/bloated-decisionTree-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9282700421940928</v>
+        <v>0.9262672811059908</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.962800875273523</v>
+        <v>0.9617224880382775</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9613636363636364</v>
+        <v>0.9601990049751244</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9401709401709402</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9691629955947136</v>
+        <v>0.970873786407767</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9681818181818183</v>
+        <v>0.9701492537313433</v>
       </c>
     </row>
     <row r="4">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9736881964730066</v>
+        <v>0.9739327015042172</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9863927741736473</v>
+        <v>0.986519254889209</v>
       </c>
       <c r="E7" t="n">
-        <v>0.985909090909091</v>
+        <v>0.9860696517412937</v>
       </c>
     </row>
   </sheetData>
